--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80159833-4618-45F8-8AF6-976CC0F7D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD850577-D362-4ABF-9C2E-40C0CCC8AF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Price" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,24 +134,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -460,46 +450,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -613,7 +578,7 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -630,7 +595,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -647,7 +612,7 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
